--- a/Unity/Assets/Config/Excel/StartConfig/Release/StartZoneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release/StartZoneConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Space\SourceCodes\ET\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nova\Legends-Of-Heroes\Unity\Assets\Config\Excel\StartConfig\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0266646D-12F4-4C45-ACA1-34E2C96C8F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AD12FC-C95F-40D3-A9F0-3B9145BADF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47325" yWindow="4395" windowWidth="25620" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8025" yWindow="3705" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -57,11 +57,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -80,7 +80,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -447,16 +447,16 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="3" customWidth="1"/>
     <col min="4" max="5" width="21" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:5">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -467,7 +467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:5">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -478,7 +478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:5">
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
@@ -489,7 +489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:5" s="1" customFormat="1">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -500,7 +500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:5">
       <c r="C7" s="3">
         <v>2</v>
       </c>

--- a/Unity/Assets/Config/Excel/StartConfig/Release/StartZoneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release/StartZoneConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nova\Legends-Of-Heroes\Unity\Assets\Config\Excel\StartConfig\Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Space\SourceCodes\ET\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AD12FC-C95F-40D3-A9F0-3B9145BADF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0266646D-12F4-4C45-ACA1-34E2C96C8F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8025" yWindow="3705" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47325" yWindow="4395" windowWidth="25620" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -57,11 +57,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -80,7 +80,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -447,16 +447,16 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
     <col min="4" max="5" width="21" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -467,7 +467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:5">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -478,7 +478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="3:5">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
@@ -489,7 +489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:5" s="1" customFormat="1">
+    <row r="6" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -500,7 +500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>2</v>
       </c>
